--- a/DDAf_2023_Groupements_de_pays.xlsx
+++ b/DDAf_2023_Groupements_de_pays.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Groupements de pays" sheetId="1" r:id="rId1"/>

--- a/DDAf_2023_Groupements_de_pays.xlsx
+++ b/DDAf_2023_Groupements_de_pays.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212E8CF6-1D76-4115-9D66-895C85D31802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF33E6D-B2FF-46BF-B4E4-45DBA6E4AE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{13704AEF-9118-4D2A-AC02-C7B9DAC3F75B}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{57CEA407-8145-4965-8913-2EDC409D2CBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Groupements de pays" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Groupements de pays'!$B$3:$AA$196</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Groupements de pays'!$A$1:$AA$196</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5253" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5252" uniqueCount="476">
   <si>
     <t>Liste des pays et groupes de pays utilisés pour agréger les indicateurs</t>
   </si>
@@ -1574,7 +1576,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE1F0DE"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2020,7 +2022,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E7C459-FAFB-4E9D-9449-A7259B8B1F91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCAEAE7-3EA6-47AB-8D0A-B32D856411E3}">
+  <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:AA214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -7802,9 +7805,7 @@
       <c r="V71" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="W71" s="16" t="s">
-        <v>54</v>
-      </c>
+      <c r="W71" s="16"/>
       <c r="X71" s="16" t="s">
         <v>42</v>
       </c>
@@ -18428,11 +18429,10 @@
       <c r="L214"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:AA196" xr:uid="{00000000-0009-0000-0000-00001F000000}"/>
   <hyperlinks>
-    <hyperlink ref="B211" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr." xr:uid="{0CBE5E5F-544C-44D7-93CD-90FECCEFA17C}"/>
-    <hyperlink ref="B213" r:id="rId2" xr:uid="{D1CBBCE7-BE48-48CE-B62C-670B038ABA89}"/>
-    <hyperlink ref="B214" r:id="rId3" xr:uid="{047BA3DA-1052-4AFE-B9C3-E6BB37E4582A}"/>
+    <hyperlink ref="B211" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr." xr:uid="{71F2D4E8-2782-480E-86D3-1B63E103EFE6}"/>
+    <hyperlink ref="B213" r:id="rId2" xr:uid="{53B304B0-DCF6-457F-8862-13ED8EF75C29}"/>
+    <hyperlink ref="B214" r:id="rId3" xr:uid="{AC2BCA25-E92E-4021-9E12-917B1F2C3BC7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/DDAf_2023_Groupements_de_pays.xlsx
+++ b/DDAf_2023_Groupements_de_pays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766CE967-CD7E-4CF0-BB66-3C8EFB4F8EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A8B504-02F4-426C-B548-E252F8278D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{613BBD80-DC09-4F1E-B821-429B7E3E4001}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{24FE7214-34E8-4F2C-A681-9A0077BF7624}"/>
   </bookViews>
   <sheets>
     <sheet name="Groupements de pays" sheetId="1" r:id="rId1"/>
@@ -2022,7 +2022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4478EAA-802E-489B-9DA4-F9D241C416D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E91EEF5-80F9-4A5A-89E2-60FB758E6EDA}">
   <dimension ref="A1:AA214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -18429,9 +18429,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B211" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr." xr:uid="{C945262C-B6A6-4C47-B98D-8F74DC47DE77}"/>
-    <hyperlink ref="B213" r:id="rId2" xr:uid="{579CEB04-4506-4234-A029-F354F1CD3FA0}"/>
-    <hyperlink ref="B214" r:id="rId3" xr:uid="{19DD76A1-30BA-4AEF-91FF-925456BA7BCE}"/>
+    <hyperlink ref="B211" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr." xr:uid="{FEA7924F-E7C3-41F9-8544-688037743883}"/>
+    <hyperlink ref="B213" r:id="rId2" xr:uid="{9C0F9F37-65B0-4421-B367-FC2851985270}"/>
+    <hyperlink ref="B214" r:id="rId3" xr:uid="{168606D5-207B-4055-A96C-776FE1A3CDED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/DDAf_2023_Groupements_de_pays.xlsx
+++ b/DDAf_2023_Groupements_de_pays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704AE60E-D316-44A9-8E64-4C7952747CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC06F0BA-62AC-4093-84C7-69932A8F9205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{D1C4EE52-C3C8-4EF9-8119-82B31F148EB6}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{C309BAB3-82DC-4E6B-86C7-10BFFB0D9DE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Groupements de pays" sheetId="1" r:id="rId1"/>
@@ -2025,7 +2025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D35F005-5E40-4903-94BA-6EA75127AB1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F48140-2A8D-4F34-AE6D-413DC1BC8463}">
   <dimension ref="A1:AA214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -18432,9 +18432,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B214" r:id="rId1" xr:uid="{8C1F1D5C-1B38-4215-AFBC-DBB2B0F9A409}"/>
-    <hyperlink ref="B213" r:id="rId2" xr:uid="{5B4DB031-2F82-41E5-BF80-D1ABA453DD28}"/>
-    <hyperlink ref="B211" r:id="rId3" xr:uid="{E42A4B36-3DD7-488C-B29B-FB4CAEC6FB9E}"/>
+    <hyperlink ref="B214" r:id="rId1" xr:uid="{1F062D2D-1FFE-4FD2-90BD-8A8DA2701002}"/>
+    <hyperlink ref="B213" r:id="rId2" xr:uid="{8BEFF8F7-0BCD-492F-94EE-10E3FD86E4ED}"/>
+    <hyperlink ref="B211" r:id="rId3" xr:uid="{1C0F2382-2ABF-4279-A870-AA54D237559D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/DDAf_2023_Groupements_de_pays.xlsx
+++ b/DDAf_2023_Groupements_de_pays.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC06F0BA-62AC-4093-84C7-69932A8F9205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB560001-CD24-4ABA-ACDF-754B62B1654D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{C309BAB3-82DC-4E6B-86C7-10BFFB0D9DE4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{192CB012-5D0C-4A44-8F2E-BE1117AAA0DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Groupements de pays" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Groupements de pays'!$A$1:$AA$196</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2025,20 +2025,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F48140-2A8D-4F34-AE6D-413DC1BC8463}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C570803-E213-4A46-8ED7-1E373036F3BF}">
   <dimension ref="A1:AA214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" customWidth="1"/>
-    <col min="3" max="12" width="18.26953125" style="29" customWidth="1"/>
-    <col min="13" max="27" width="18.26953125" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="3" max="12" width="18.21875" style="29" customWidth="1"/>
+    <col min="13" max="27" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
@@ -2066,7 +2066,7 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
     </row>
-    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2096,7 +2096,7 @@
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
     </row>
-    <row r="3" spans="1:27" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>28</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>43</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>49</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>58</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>62</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>69</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>75</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>79</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>81</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>85</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>88</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>90</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>92</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>94</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>96</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>98</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>100</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>102</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>104</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>109</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>111</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>113</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>115</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>117</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>119</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>122</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>124</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>126</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>131</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>133</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>135</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>137</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>139</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>141</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>143</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>145</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>147</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>149</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>152</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>154</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>156</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>158</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>160</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>162</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>164</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>166</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>168</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>171</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>173</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>175</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>177</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>179</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>181</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>183</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>185</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>187</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>189</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>191</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>193</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>195</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>197</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>199</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>201</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>203</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
         <v>205</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>207</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>209</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>211</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>213</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>215</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>217</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>219</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
         <v>221</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>223</v>
       </c>
@@ -8319,7 +8319,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>225</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
         <v>227</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
         <v>229</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
         <v>231</v>
       </c>
@@ -8651,7 +8651,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>233</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
         <v>235</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>237</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
         <v>239</v>
       </c>
@@ -8983,7 +8983,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
         <v>241</v>
       </c>
@@ -9066,7 +9066,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
         <v>243</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>245</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>247</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
         <v>249</v>
       </c>
@@ -9398,7 +9398,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
         <v>251</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>253</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>255</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
         <v>257</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="95" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
         <v>259</v>
       </c>
@@ -9813,7 +9813,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
         <v>261</v>
       </c>
@@ -9896,7 +9896,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
         <v>263</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>265</v>
       </c>
@@ -10062,7 +10062,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="99" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
         <v>267</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
         <v>269</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>271</v>
       </c>
@@ -10311,7 +10311,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
         <v>273</v>
       </c>
@@ -10394,7 +10394,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
         <v>275</v>
       </c>
@@ -10477,7 +10477,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
         <v>277</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
         <v>279</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="106" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10" t="s">
         <v>281</v>
       </c>
@@ -10726,7 +10726,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
         <v>283</v>
       </c>
@@ -10809,7 +10809,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
         <v>285</v>
       </c>
@@ -10892,7 +10892,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
         <v>287</v>
       </c>
@@ -10975,7 +10975,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="110" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="10" t="s">
         <v>289</v>
       </c>
@@ -11058,7 +11058,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
         <v>291</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="112" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
         <v>293</v>
       </c>
@@ -11224,7 +11224,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="113" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
         <v>295</v>
       </c>
@@ -11307,7 +11307,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="114" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="10" t="s">
         <v>297</v>
       </c>
@@ -11390,7 +11390,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
         <v>299</v>
       </c>
@@ -11473,7 +11473,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="116" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
         <v>301</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
         <v>303</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="10" t="s">
         <v>305</v>
       </c>
@@ -11722,7 +11722,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
         <v>307</v>
       </c>
@@ -11805,7 +11805,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="120" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="10" t="s">
         <v>309</v>
       </c>
@@ -11888,7 +11888,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="121" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="10" t="s">
         <v>311</v>
       </c>
@@ -11971,7 +11971,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="10" t="s">
         <v>313</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
         <v>315</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="10" t="s">
         <v>317</v>
       </c>
@@ -12220,7 +12220,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="125" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="10" t="s">
         <v>319</v>
       </c>
@@ -12303,7 +12303,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="126" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="10" t="s">
         <v>321</v>
       </c>
@@ -12386,7 +12386,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="127" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="10" t="s">
         <v>323</v>
       </c>
@@ -12469,7 +12469,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="128" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
         <v>325</v>
       </c>
@@ -12552,7 +12552,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="129" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
         <v>327</v>
       </c>
@@ -12635,7 +12635,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="130" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="10" t="s">
         <v>329</v>
       </c>
@@ -12718,7 +12718,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="10" t="s">
         <v>331</v>
       </c>
@@ -12801,7 +12801,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
         <v>333</v>
       </c>
@@ -12884,7 +12884,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="133" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="10" t="s">
         <v>335</v>
       </c>
@@ -12967,7 +12967,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="134" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="10" t="s">
         <v>337</v>
       </c>
@@ -13050,7 +13050,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="135" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="10" t="s">
         <v>339</v>
       </c>
@@ -13133,7 +13133,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="136" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="s">
         <v>341</v>
       </c>
@@ -13216,7 +13216,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="137" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
         <v>343</v>
       </c>
@@ -13299,7 +13299,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="138" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="10" t="s">
         <v>345</v>
       </c>
@@ -13382,7 +13382,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
         <v>347</v>
       </c>
@@ -13465,7 +13465,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="140" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
         <v>349</v>
       </c>
@@ -13548,7 +13548,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="141" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
         <v>351</v>
       </c>
@@ -13631,7 +13631,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="142" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="10" t="s">
         <v>353</v>
       </c>
@@ -13714,7 +13714,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="143" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="10" t="s">
         <v>355</v>
       </c>
@@ -13797,7 +13797,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="144" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="10" t="s">
         <v>357</v>
       </c>
@@ -13880,7 +13880,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="145" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="10" t="s">
         <v>359</v>
       </c>
@@ -13963,7 +13963,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="146" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="10" t="s">
         <v>361</v>
       </c>
@@ -14046,7 +14046,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="147" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="10" t="s">
         <v>363</v>
       </c>
@@ -14129,7 +14129,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="148" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="10" t="s">
         <v>365</v>
       </c>
@@ -14212,7 +14212,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="149" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="10" t="s">
         <v>367</v>
       </c>
@@ -14295,7 +14295,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="150" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="10" t="s">
         <v>369</v>
       </c>
@@ -14378,7 +14378,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="151" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
         <v>371</v>
       </c>
@@ -14461,7 +14461,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="152" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="10" t="s">
         <v>373</v>
       </c>
@@ -14544,7 +14544,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="153" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="10" t="s">
         <v>375</v>
       </c>
@@ -14627,7 +14627,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="154" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="10" t="s">
         <v>377</v>
       </c>
@@ -14710,7 +14710,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="155" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
         <v>379</v>
       </c>
@@ -14793,7 +14793,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="156" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="s">
         <v>381</v>
       </c>
@@ -14876,7 +14876,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="157" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
         <v>383</v>
       </c>
@@ -14959,7 +14959,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="158" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="10" t="s">
         <v>385</v>
       </c>
@@ -15042,7 +15042,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="159" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="10" t="s">
         <v>387</v>
       </c>
@@ -15125,7 +15125,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="160" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="10" t="s">
         <v>389</v>
       </c>
@@ -15208,7 +15208,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="161" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="10" t="s">
         <v>391</v>
       </c>
@@ -15291,7 +15291,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="162" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="10" t="s">
         <v>393</v>
       </c>
@@ -15374,7 +15374,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="163" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="10" t="s">
         <v>395</v>
       </c>
@@ -15457,7 +15457,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="164" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="10" t="s">
         <v>397</v>
       </c>
@@ -15540,7 +15540,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="165" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="10" t="s">
         <v>399</v>
       </c>
@@ -15623,7 +15623,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="10" t="s">
         <v>401</v>
       </c>
@@ -15706,7 +15706,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="167" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="10" t="s">
         <v>403</v>
       </c>
@@ -15789,7 +15789,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="168" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="10" t="s">
         <v>405</v>
       </c>
@@ -15872,7 +15872,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="169" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="10" t="s">
         <v>407</v>
       </c>
@@ -15955,7 +15955,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="170" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="10" t="s">
         <v>409</v>
       </c>
@@ -16038,7 +16038,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="171" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="10" t="s">
         <v>411</v>
       </c>
@@ -16121,7 +16121,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="172" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="10" t="s">
         <v>413</v>
       </c>
@@ -16204,7 +16204,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="173" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="10" t="s">
         <v>415</v>
       </c>
@@ -16287,7 +16287,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="174" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="10" t="s">
         <v>417</v>
       </c>
@@ -16370,7 +16370,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="175" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="10" t="s">
         <v>419</v>
       </c>
@@ -16453,7 +16453,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="176" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="10" t="s">
         <v>421</v>
       </c>
@@ -16536,7 +16536,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="177" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="10" t="s">
         <v>423</v>
       </c>
@@ -16619,7 +16619,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="178" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="10" t="s">
         <v>425</v>
       </c>
@@ -16702,7 +16702,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="179" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="10" t="s">
         <v>427</v>
       </c>
@@ -16785,7 +16785,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="180" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="10" t="s">
         <v>429</v>
       </c>
@@ -16868,7 +16868,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="181" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="10" t="s">
         <v>431</v>
       </c>
@@ -16951,7 +16951,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="182" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="10" t="s">
         <v>433</v>
       </c>
@@ -17034,7 +17034,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="183" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="10" t="s">
         <v>435</v>
       </c>
@@ -17117,7 +17117,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="184" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="10" t="s">
         <v>437</v>
       </c>
@@ -17200,7 +17200,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="185" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="10" t="s">
         <v>439</v>
       </c>
@@ -17283,7 +17283,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="186" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="10" t="s">
         <v>441</v>
       </c>
@@ -17366,7 +17366,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="187" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="10" t="s">
         <v>443</v>
       </c>
@@ -17449,7 +17449,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="188" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="10" t="s">
         <v>445</v>
       </c>
@@ -17532,7 +17532,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="189" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="10" t="s">
         <v>447</v>
       </c>
@@ -17615,7 +17615,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="190" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="10" t="s">
         <v>449</v>
       </c>
@@ -17698,7 +17698,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="191" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="s">
         <v>451</v>
       </c>
@@ -17781,7 +17781,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="192" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="10" t="s">
         <v>453</v>
       </c>
@@ -17864,7 +17864,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="193" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="10" t="s">
         <v>455</v>
       </c>
@@ -17947,7 +17947,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="194" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="10" t="s">
         <v>457</v>
       </c>
@@ -18030,7 +18030,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="195" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="10" t="s">
         <v>459</v>
       </c>
@@ -18113,7 +18113,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="196" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="10" t="s">
         <v>461</v>
       </c>
@@ -18196,7 +18196,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="197" spans="1:27" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:27" s="24" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B197" s="25"/>
       <c r="C197" s="26"/>
       <c r="D197" s="27"/>
@@ -18224,7 +18224,7 @@
       <c r="Z197" s="27"/>
       <c r="AA197" s="27"/>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A198" s="28" t="s">
         <v>463</v>
       </c>
@@ -18240,7 +18240,7 @@
       <c r="U198" s="29"/>
       <c r="V198" s="29"/>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A199" s="28" t="s">
         <v>464</v>
       </c>
@@ -18256,7 +18256,7 @@
       <c r="U199" s="29"/>
       <c r="V199" s="29"/>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A200" s="28" t="s">
         <v>465</v>
       </c>
@@ -18272,7 +18272,7 @@
       <c r="U200" s="29"/>
       <c r="V200" s="29"/>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A201" s="28" t="s">
         <v>466</v>
       </c>
@@ -18288,7 +18288,7 @@
       <c r="U201" s="29"/>
       <c r="V201" s="29"/>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A202" s="28" t="s">
         <v>467</v>
       </c>
@@ -18304,7 +18304,7 @@
       <c r="U202" s="29"/>
       <c r="V202" s="29"/>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A203" s="28" t="s">
         <v>468</v>
       </c>
@@ -18320,7 +18320,7 @@
       <c r="U203" s="29"/>
       <c r="V203" s="29"/>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A204" s="28" t="s">
         <v>469</v>
       </c>
@@ -18336,7 +18336,7 @@
       <c r="U204" s="29"/>
       <c r="V204" s="29"/>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A205" s="28" t="s">
         <v>470</v>
       </c>
@@ -18352,7 +18352,7 @@
       <c r="U205" s="29"/>
       <c r="V205" s="29"/>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A206" s="28" t="s">
         <v>471</v>
       </c>
@@ -18368,7 +18368,7 @@
       <c r="U206" s="29"/>
       <c r="V206" s="29"/>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A207" s="28" t="s">
         <v>472</v>
       </c>
@@ -18384,23 +18384,23 @@
       <c r="U207" s="29"/>
       <c r="V207" s="29"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" s="30" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" s="30"/>
     </row>
-    <row r="211" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B211" s="31" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B212" s="1"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B213" s="1" t="s">
         <v>475</v>
       </c>
@@ -18415,7 +18415,7 @@
       <c r="K213"/>
       <c r="L213"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B214" s="1" t="s">
         <v>476</v>
       </c>
@@ -18432,9 +18432,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B214" r:id="rId1" xr:uid="{1F062D2D-1FFE-4FD2-90BD-8A8DA2701002}"/>
-    <hyperlink ref="B213" r:id="rId2" xr:uid="{8BEFF8F7-0BCD-492F-94EE-10E3FD86E4ED}"/>
-    <hyperlink ref="B211" r:id="rId3" xr:uid="{1C0F2382-2ABF-4279-A870-AA54D237559D}"/>
+    <hyperlink ref="B214" r:id="rId1" xr:uid="{225AC742-36E7-4924-B980-9646DF3DD4B8}"/>
+    <hyperlink ref="B213" r:id="rId2" xr:uid="{3C4F9764-B493-4E66-AF8F-5B29C6D073C7}"/>
+    <hyperlink ref="B211" r:id="rId3" xr:uid="{A10ED4A4-563A-474B-93C0-00C8F898C5BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
